--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll3-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll3-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Notch4</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H2">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I2">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J2">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N2">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O2">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P2">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q2">
-        <v>12.045573777184</v>
+        <v>17.22554046518223</v>
       </c>
       <c r="R2">
-        <v>108.410163994656</v>
+        <v>155.02986418664</v>
       </c>
       <c r="S2">
-        <v>0.3108174385254788</v>
+        <v>0.23878694874664</v>
       </c>
       <c r="T2">
-        <v>0.3108174385254788</v>
+        <v>0.2387869487466399</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H3">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I3">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J3">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N3">
         <v>1.966766</v>
       </c>
       <c r="O3">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P3">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q3">
-        <v>0.219257040446</v>
+        <v>0.2264001160284445</v>
       </c>
       <c r="R3">
-        <v>1.973313364014</v>
+        <v>2.037601044256</v>
       </c>
       <c r="S3">
-        <v>0.005657589497246414</v>
+        <v>0.003138443929326407</v>
       </c>
       <c r="T3">
-        <v>0.005657589497246414</v>
+        <v>0.003138443929326406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H4">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I4">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J4">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N4">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O4">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P4">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q4">
-        <v>0.2492992747690001</v>
+        <v>0.04377754675733334</v>
       </c>
       <c r="R4">
-        <v>2.243693472921001</v>
+        <v>0.393997920816</v>
       </c>
       <c r="S4">
-        <v>0.006432782982636367</v>
+        <v>0.0006068608897890047</v>
       </c>
       <c r="T4">
-        <v>0.006432782982636369</v>
+        <v>0.0006068608897890046</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H5">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I5">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J5">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N5">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O5">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P5">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q5">
-        <v>0.3435678313310001</v>
+        <v>0.1561170208142222</v>
       </c>
       <c r="R5">
-        <v>3.092110481979</v>
+        <v>1.405053187328</v>
       </c>
       <c r="S5">
-        <v>0.008865237577667277</v>
+        <v>0.00216415311455654</v>
       </c>
       <c r="T5">
-        <v>0.008865237577667277</v>
+        <v>0.002164153114556539</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H6">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I6">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J6">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N6">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O6">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P6">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q6">
-        <v>0.327595502537</v>
+        <v>0.7968519366257778</v>
       </c>
       <c r="R6">
-        <v>2.948359522833</v>
+        <v>7.171667429632</v>
       </c>
       <c r="S6">
-        <v>0.008453096287026455</v>
+        <v>0.01104626255032907</v>
       </c>
       <c r="T6">
-        <v>0.008453096287026455</v>
+        <v>0.01104626255032907</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H7">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I7">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J7">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N7">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O7">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P7">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q7">
-        <v>0.376322175422</v>
+        <v>0.2690738452942222</v>
       </c>
       <c r="R7">
-        <v>3.386899578798</v>
+        <v>2.421664607648</v>
       </c>
       <c r="S7">
-        <v>0.009710412869377356</v>
+        <v>0.003730003284088717</v>
       </c>
       <c r="T7">
-        <v>0.009710412869377356</v>
+        <v>0.003730003284088716</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I8">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J8">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N8">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O8">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P8">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q8">
-        <v>7.202980087239112</v>
+        <v>9.975495611857781</v>
       </c>
       <c r="R8">
-        <v>64.82682078515199</v>
+        <v>89.77946050672001</v>
       </c>
       <c r="S8">
-        <v>0.1858617830813765</v>
+        <v>0.1382840883399717</v>
       </c>
       <c r="T8">
-        <v>0.1858617830813765</v>
+        <v>0.1382840883399717</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I9">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J9">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N9">
         <v>1.966766</v>
       </c>
       <c r="O9">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P9">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q9">
-        <v>0.1311107403875555</v>
+        <v>0.1311107403875556</v>
       </c>
       <c r="R9">
         <v>1.179996663488</v>
       </c>
       <c r="S9">
-        <v>0.003383110281357298</v>
+        <v>0.001817506609347834</v>
       </c>
       <c r="T9">
-        <v>0.003383110281357298</v>
+        <v>0.001817506609347834</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I10">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J10">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N10">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O10">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P10">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q10">
-        <v>0.1490753155591112</v>
+        <v>0.02535204781866667</v>
       </c>
       <c r="R10">
-        <v>1.341677840032</v>
+        <v>0.228168430368</v>
       </c>
       <c r="S10">
-        <v>0.00384665841466396</v>
+        <v>0.00035143966340764</v>
       </c>
       <c r="T10">
-        <v>0.00384665841466396</v>
+        <v>0.00035143966340764</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I11">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J11">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N11">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O11">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P11">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q11">
-        <v>0.2054457756408889</v>
+        <v>0.0904090445937778</v>
       </c>
       <c r="R11">
-        <v>1.849011980768</v>
+        <v>0.8136814013440001</v>
       </c>
       <c r="S11">
-        <v>0.00530121112715558</v>
+        <v>0.001253284327495191</v>
       </c>
       <c r="T11">
-        <v>0.00530121112715558</v>
+        <v>0.001253284327495191</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I12">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J12">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N12">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O12">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P12">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q12">
-        <v>0.1958946850595555</v>
+        <v>0.4614655205262223</v>
       </c>
       <c r="R12">
-        <v>1.763052165536</v>
+        <v>4.153189684736001</v>
       </c>
       <c r="S12">
-        <v>0.005054759977170687</v>
+        <v>0.006397009360662223</v>
       </c>
       <c r="T12">
-        <v>0.005054759977170687</v>
+        <v>0.006397009360662221</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I13">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J13">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N13">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O13">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P13">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q13">
-        <v>0.2250321309795556</v>
+        <v>0.1558235556337778</v>
       </c>
       <c r="R13">
-        <v>2.025289178816</v>
+        <v>1.402412000704</v>
       </c>
       <c r="S13">
-        <v>0.00580660679439605</v>
+        <v>0.002160084989370955</v>
       </c>
       <c r="T13">
-        <v>0.00580660679439605</v>
+        <v>0.002160084989370955</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H14">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I14">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J14">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N14">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O14">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P14">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q14">
-        <v>3.172025466040889</v>
+        <v>2.865996361643889</v>
       </c>
       <c r="R14">
-        <v>28.548229194368</v>
+        <v>25.793967254795</v>
       </c>
       <c r="S14">
-        <v>0.08184922101094835</v>
+        <v>0.03972952417366583</v>
       </c>
       <c r="T14">
-        <v>0.08184922101094834</v>
+        <v>0.03972952417366582</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H15">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I15">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J15">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N15">
         <v>1.966766</v>
       </c>
       <c r="O15">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P15">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q15">
-        <v>0.05773813093244444</v>
+        <v>0.03766859507977778</v>
       </c>
       <c r="R15">
-        <v>0.5196431783919999</v>
+        <v>0.339017355718</v>
       </c>
       <c r="S15">
-        <v>0.001489843347741837</v>
+        <v>0.0005221762940242048</v>
       </c>
       <c r="T15">
-        <v>0.001489843347741837</v>
+        <v>0.0005221762940242048</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H16">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I16">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J16">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N16">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O16">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P16">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q16">
-        <v>0.06564931342088891</v>
+        <v>0.007283736030333332</v>
       </c>
       <c r="R16">
-        <v>0.5908438207880001</v>
+        <v>0.065553624273</v>
       </c>
       <c r="S16">
-        <v>0.001693979200649358</v>
+        <v>0.0001009699002289541</v>
       </c>
       <c r="T16">
-        <v>0.001693979200649358</v>
+        <v>0.0001009699002289541</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H17">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I17">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J17">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N17">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O17">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P17">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q17">
-        <v>0.09047355737911111</v>
+        <v>0.02597484906488889</v>
       </c>
       <c r="R17">
-        <v>0.814262016412</v>
+        <v>0.233773641584</v>
       </c>
       <c r="S17">
-        <v>0.002334530498839988</v>
+        <v>0.0003600731695412565</v>
       </c>
       <c r="T17">
-        <v>0.002334530498839988</v>
+        <v>0.0003600731695412564</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H18">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I18">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J18">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N18">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O18">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P18">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q18">
-        <v>0.08626747848044444</v>
+        <v>0.1325807312551111</v>
       </c>
       <c r="R18">
-        <v>0.7764073063239999</v>
+        <v>1.193226581296</v>
       </c>
       <c r="S18">
-        <v>0.002225999125100375</v>
+        <v>0.001837884178031877</v>
       </c>
       <c r="T18">
-        <v>0.002225999125100374</v>
+        <v>0.001837884178031877</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H19">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I19">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J19">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N19">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O19">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P19">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q19">
-        <v>0.09909893426044444</v>
+        <v>0.04476867725488889</v>
       </c>
       <c r="R19">
-        <v>0.8918904083439999</v>
+        <v>0.402918095294</v>
       </c>
       <c r="S19">
-        <v>0.002557095035670184</v>
+        <v>0.0006206003151382067</v>
       </c>
       <c r="T19">
-        <v>0.002557095035670184</v>
+        <v>0.0006206003151382067</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H20">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I20">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J20">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N20">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O20">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P20">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q20">
-        <v>6.352322795381334</v>
+        <v>20.90403440013778</v>
       </c>
       <c r="R20">
-        <v>57.170905158432</v>
+        <v>188.13630960124</v>
       </c>
       <c r="S20">
-        <v>0.1639118846864106</v>
+        <v>0.2897796211963962</v>
       </c>
       <c r="T20">
-        <v>0.1639118846864106</v>
+        <v>0.2897796211963962</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H21">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I21">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J21">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N21">
         <v>1.966766</v>
       </c>
       <c r="O21">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P21">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q21">
-        <v>0.1156268287286667</v>
+        <v>0.2747475948995556</v>
       </c>
       <c r="R21">
-        <v>1.040641458558</v>
+        <v>2.472728354096001</v>
       </c>
       <c r="S21">
-        <v>0.00298357184099786</v>
+        <v>0.003808654944334065</v>
       </c>
       <c r="T21">
-        <v>0.00298357184099786</v>
+        <v>0.003808654944334065</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H22">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I22">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J22">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N22">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O22">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P22">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q22">
-        <v>0.1314698241263334</v>
+        <v>0.05312619045066667</v>
       </c>
       <c r="R22">
-        <v>1.183228417137</v>
+        <v>0.4781357140560001</v>
       </c>
       <c r="S22">
-        <v>0.003392375882977245</v>
+        <v>0.0007364553200457954</v>
       </c>
       <c r="T22">
-        <v>0.003392375882977246</v>
+        <v>0.0007364553200457955</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H23">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I23">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J23">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N23">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O23">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P23">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q23">
-        <v>0.1811830475736667</v>
+        <v>0.1894556272497778</v>
       </c>
       <c r="R23">
-        <v>1.630647428163</v>
+        <v>1.705100645248</v>
       </c>
       <c r="S23">
-        <v>0.004675148879811374</v>
+        <v>0.00262630547037391</v>
       </c>
       <c r="T23">
-        <v>0.004675148879811374</v>
+        <v>0.00262630547037391</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H24">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I24">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J24">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N24">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O24">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P24">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q24">
-        <v>0.1727599213556667</v>
+        <v>0.9670187317902222</v>
       </c>
       <c r="R24">
-        <v>1.554839292201</v>
+        <v>8.703168586112001</v>
       </c>
       <c r="S24">
-        <v>0.004457803109167012</v>
+        <v>0.01340517894412492</v>
       </c>
       <c r="T24">
-        <v>0.004457803109167012</v>
+        <v>0.01340517894412492</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H25">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I25">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J25">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N25">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O25">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P25">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q25">
-        <v>0.1984562942006667</v>
+        <v>0.3265342489297778</v>
       </c>
       <c r="R25">
-        <v>1.786106647806</v>
+        <v>2.938808240368</v>
       </c>
       <c r="S25">
-        <v>0.005120858347117308</v>
+        <v>0.004526541104519857</v>
       </c>
       <c r="T25">
-        <v>0.005120858347117308</v>
+        <v>0.004526541104519857</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H26">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I26">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J26">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N26">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O26">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P26">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q26">
-        <v>5.649262437347556</v>
+        <v>11.69371673702611</v>
       </c>
       <c r="R26">
-        <v>50.843361936128</v>
+        <v>105.243450633235</v>
       </c>
       <c r="S26">
-        <v>0.1457704973473717</v>
+        <v>0.1621027186221551</v>
       </c>
       <c r="T26">
-        <v>0.1457704973473717</v>
+        <v>0.1621027186221551</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H27">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I27">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J27">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N27">
         <v>1.966766</v>
       </c>
       <c r="O27">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P27">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q27">
-        <v>0.1028295194257778</v>
+        <v>0.1536938031882222</v>
       </c>
       <c r="R27">
-        <v>0.9254656748319999</v>
+        <v>1.383244228694</v>
       </c>
       <c r="S27">
-        <v>0.002653357027563535</v>
+        <v>0.002130561556472705</v>
       </c>
       <c r="T27">
-        <v>0.002653357027563536</v>
+        <v>0.002130561556472704</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H28">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I28">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J28">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N28">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O28">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P28">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q28">
-        <v>0.1169190488275556</v>
+        <v>0.02971879066766666</v>
       </c>
       <c r="R28">
-        <v>1.052271439448</v>
+        <v>0.267469116009</v>
       </c>
       <c r="S28">
-        <v>0.003016915586059515</v>
+        <v>0.0004119731022847283</v>
       </c>
       <c r="T28">
-        <v>0.003016915586059516</v>
+        <v>0.0004119731022847283</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H29">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I29">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J29">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N29">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O29">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P29">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q29">
-        <v>0.1611301279724444</v>
+        <v>0.1059814769191111</v>
       </c>
       <c r="R29">
-        <v>1.450171151752</v>
+        <v>0.953833292272</v>
       </c>
       <c r="S29">
-        <v>0.00415771424193509</v>
+        <v>0.001469155266758086</v>
       </c>
       <c r="T29">
-        <v>0.004157714241935091</v>
+        <v>0.001469155266758086</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H30">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I30">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J30">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N30">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O30">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P30">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q30">
-        <v>0.1536392538337777</v>
+        <v>0.5409502736408889</v>
       </c>
       <c r="R30">
-        <v>1.382753284504</v>
+        <v>4.868552462768</v>
       </c>
       <c r="S30">
-        <v>0.003964423797231887</v>
+        <v>0.007498857033105076</v>
       </c>
       <c r="T30">
-        <v>0.003964423797231888</v>
+        <v>0.007498857033105075</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H31">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I31">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J31">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N31">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O31">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P31">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q31">
-        <v>0.1764916117137778</v>
+        <v>0.1826632571891111</v>
       </c>
       <c r="R31">
-        <v>1.588424505424</v>
+        <v>1.643969314702</v>
       </c>
       <c r="S31">
-        <v>0.004554093618854088</v>
+        <v>0.002532147070826273</v>
       </c>
       <c r="T31">
-        <v>0.004554093618854088</v>
+        <v>0.002532147070826272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.223853</v>
+      </c>
+      <c r="I32">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J32">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>49.88013833333334</v>
+      </c>
+      <c r="N32">
+        <v>149.640415</v>
+      </c>
+      <c r="O32">
+        <v>0.9202778328538029</v>
+      </c>
+      <c r="P32">
+        <v>0.9202778328538028</v>
+      </c>
+      <c r="Q32">
+        <v>3.72193953544389</v>
+      </c>
+      <c r="R32">
+        <v>33.497455818995</v>
+      </c>
+      <c r="S32">
+        <v>0.05159493177497414</v>
+      </c>
+      <c r="T32">
+        <v>0.05159493177497413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.223853</v>
+      </c>
+      <c r="I33">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J33">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.6555886666666667</v>
+      </c>
+      <c r="N33">
+        <v>1.966766</v>
+      </c>
+      <c r="O33">
+        <v>0.0120954700119653</v>
+      </c>
+      <c r="P33">
+        <v>0.0120954700119653</v>
+      </c>
+      <c r="Q33">
+        <v>0.04891849659977778</v>
+      </c>
+      <c r="R33">
+        <v>0.4402664693980001</v>
+      </c>
+      <c r="S33">
+        <v>0.0006781266784600856</v>
+      </c>
+      <c r="T33">
+        <v>0.0006781266784600856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.223853</v>
+      </c>
+      <c r="I34">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J34">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.126767</v>
+      </c>
+      <c r="N34">
+        <v>0.380301</v>
+      </c>
+      <c r="O34">
+        <v>0.002338823907379126</v>
+      </c>
+      <c r="P34">
+        <v>0.002338823907379127</v>
+      </c>
+      <c r="Q34">
+        <v>0.009459057750333332</v>
+      </c>
+      <c r="R34">
+        <v>0.085131519753</v>
+      </c>
+      <c r="S34">
+        <v>0.0001311250316230039</v>
+      </c>
+      <c r="T34">
+        <v>0.000131125031623004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.223853</v>
+      </c>
+      <c r="I35">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J35">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.4520693333333334</v>
+      </c>
+      <c r="N35">
+        <v>1.356208</v>
+      </c>
+      <c r="O35">
+        <v>0.008340582048900294</v>
+      </c>
+      <c r="P35">
+        <v>0.008340582048900293</v>
+      </c>
+      <c r="Q35">
+        <v>0.03373235882488889</v>
+      </c>
+      <c r="R35">
+        <v>0.303591229424</v>
+      </c>
+      <c r="S35">
+        <v>0.0004676107001753111</v>
+      </c>
+      <c r="T35">
+        <v>0.000467610700175311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.223853</v>
+      </c>
+      <c r="I36">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J36">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.307450666666667</v>
+      </c>
+      <c r="N36">
+        <v>6.922352</v>
+      </c>
+      <c r="O36">
+        <v>0.04257196892170599</v>
+      </c>
+      <c r="P36">
+        <v>0.04257196892170599</v>
+      </c>
+      <c r="Q36">
+        <v>0.1721765846951111</v>
+      </c>
+      <c r="R36">
+        <v>1.549589262256</v>
+      </c>
+      <c r="S36">
+        <v>0.002386776855452825</v>
+      </c>
+      <c r="T36">
+        <v>0.002386776855452825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.223853</v>
+      </c>
+      <c r="I37">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J37">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.7791593333333333</v>
+      </c>
+      <c r="N37">
+        <v>2.337478</v>
+      </c>
+      <c r="O37">
+        <v>0.01437532225624636</v>
+      </c>
+      <c r="P37">
+        <v>0.01437532225624636</v>
+      </c>
+      <c r="Q37">
+        <v>0.05813905141488888</v>
+      </c>
+      <c r="R37">
+        <v>0.523251462734</v>
+      </c>
+      <c r="S37">
+        <v>0.0008059454923023501</v>
+      </c>
+      <c r="T37">
+        <v>0.0008059454923023501</v>
       </c>
     </row>
   </sheetData>
